--- a/outcome/appendix/data/0_impact/Brucellosis.xlsx
+++ b/outcome/appendix/data/0_impact/Brucellosis.xlsx
@@ -409,13 +409,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3447.87413663743</v>
+        <v>3477.40238865933</v>
       </c>
       <c r="C2" t="n">
-        <v>2258.85533532201</v>
+        <v>2377.38671787866</v>
       </c>
       <c r="D2" t="n">
-        <v>2148.24833072284</v>
+        <v>2267.00662626154</v>
       </c>
       <c r="E2" t="n">
         <v>4599.4796888908</v>
@@ -435,13 +435,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3636.1577347817</v>
+        <v>3637.06359503538</v>
       </c>
       <c r="C3" t="n">
-        <v>2585.7060157313</v>
+        <v>2585.7060314072</v>
       </c>
       <c r="D3" t="n">
-        <v>2289.40995542502</v>
+        <v>2289.40997144949</v>
       </c>
       <c r="E3" t="n">
         <v>5020.02502755969</v>
@@ -461,13 +461,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4980.39321382137</v>
+        <v>4996.01655973432</v>
       </c>
       <c r="C4" t="n">
-        <v>3671.03992290552</v>
+        <v>3737.6741827474</v>
       </c>
       <c r="D4" t="n">
-        <v>3558.54881365809</v>
+        <v>3628.95142757661</v>
       </c>
       <c r="E4" t="n">
         <v>6504.44981417968</v>
@@ -487,13 +487,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5613.62168016054</v>
+        <v>5622.88190366</v>
       </c>
       <c r="C5" t="n">
-        <v>4413.74606739834</v>
+        <v>4443.54112431212</v>
       </c>
       <c r="D5" t="n">
-        <v>4156.73687908067</v>
+        <v>4156.73689459672</v>
       </c>
       <c r="E5" t="n">
         <v>7199.65910214589</v>
@@ -513,13 +513,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6267.69072785182</v>
+        <v>6226.56939884586</v>
       </c>
       <c r="C6" t="n">
-        <v>4652.98020256704</v>
+        <v>4394.13166634378</v>
       </c>
       <c r="D6" t="n">
-        <v>4348.72887571721</v>
+        <v>4055.03757825788</v>
       </c>
       <c r="E6" t="n">
         <v>8016.39096042673</v>
@@ -539,13 +539,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6210.68014417636</v>
+        <v>6075.94913552657</v>
       </c>
       <c r="C7" t="n">
-        <v>4501.74077227065</v>
+        <v>4025.80637922716</v>
       </c>
       <c r="D7" t="n">
-        <v>4161.78422734296</v>
+        <v>3676.11275107371</v>
       </c>
       <c r="E7" t="n">
         <v>7763.0471202728</v>
@@ -565,16 +565,16 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5913.77758748935</v>
+        <v>5730.74617383134</v>
       </c>
       <c r="C8" t="n">
-        <v>4432.36963818318</v>
+        <v>3970.95952939827</v>
       </c>
       <c r="D8" t="n">
-        <v>4073.63829849549</v>
+        <v>3739.52445237409</v>
       </c>
       <c r="E8" t="n">
-        <v>7278.45860449067</v>
+        <v>7278.45861049349</v>
       </c>
       <c r="F8" t="n">
         <v>7874.91932959093</v>
@@ -591,16 +591,16 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>4969.5951247496</v>
+        <v>4785.36059216478</v>
       </c>
       <c r="C9" t="n">
-        <v>3655.06861778298</v>
+        <v>3474.92863471693</v>
       </c>
       <c r="D9" t="n">
         <v>2958.10636689782</v>
       </c>
       <c r="E9" t="n">
-        <v>6331.35522520938</v>
+        <v>6331.35522521663</v>
       </c>
       <c r="F9" t="n">
         <v>6985.21693289129</v>
@@ -617,7 +617,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3724.34153154462</v>
+        <v>3535.9721429657</v>
       </c>
       <c r="C10" t="n">
         <v>2167.37061448345</v>
@@ -626,10 +626,10 @@
         <v>1427.05602539812</v>
       </c>
       <c r="E10" t="n">
-        <v>5245.72828799654</v>
+        <v>5158.67726549985</v>
       </c>
       <c r="F10" t="n">
-        <v>5787.1959738493</v>
+        <v>5787.1959779704</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3099.26526560135</v>
+        <v>3020.58774825136</v>
       </c>
       <c r="C11" t="n">
         <v>1672.69406951995</v>
@@ -669,7 +669,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3100.62083062134</v>
+        <v>3049.12502984257</v>
       </c>
       <c r="C12" t="n">
         <v>1666.1117345984</v>
@@ -695,7 +695,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3060.65353373038</v>
+        <v>3010.62731930779</v>
       </c>
       <c r="C13" t="n">
         <v>1443.06563820476</v>
@@ -704,10 +704,10 @@
         <v>584.482683436614</v>
       </c>
       <c r="E13" t="n">
-        <v>4865.20494651637</v>
+        <v>4865.20494506098</v>
       </c>
       <c r="F13" t="n">
-        <v>5590.95418047795</v>
+        <v>5590.95417814927</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,10 +721,10 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>3536.81783772068</v>
+        <v>3510.25049160647</v>
       </c>
       <c r="C14" t="n">
-        <v>1924.70763113481</v>
+        <v>1911.40786832321</v>
       </c>
       <c r="D14" t="n">
         <v>1337.71190539234</v>
@@ -747,13 +747,13 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3746.3075291673</v>
+        <v>3719.43368520739</v>
       </c>
       <c r="C15" t="n">
-        <v>2101.88386871993</v>
+        <v>2101.8839082908</v>
       </c>
       <c r="D15" t="n">
-        <v>1212.10373090582</v>
+        <v>1212.10377088405</v>
       </c>
       <c r="E15" t="n">
         <v>6007.82708370173</v>
@@ -773,13 +773,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4964.00473200756</v>
+        <v>5019.88562870676</v>
       </c>
       <c r="C16" t="n">
-        <v>2991.48854671178</v>
+        <v>2941.81979673599</v>
       </c>
       <c r="D16" t="n">
-        <v>2634.15496718598</v>
+        <v>2634.15499446684</v>
       </c>
       <c r="E16" t="n">
         <v>7413.10680112121</v>
@@ -799,13 +799,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5665.12674719222</v>
+        <v>5619.58367720837</v>
       </c>
       <c r="C17" t="n">
-        <v>3894.5049397568</v>
+        <v>3564.89209413996</v>
       </c>
       <c r="D17" t="n">
-        <v>2978.99006886096</v>
+        <v>2978.99010225133</v>
       </c>
       <c r="E17" t="n">
         <v>8048.50894143026</v>
@@ -825,19 +825,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6358.94590372629</v>
+        <v>6227.6362692611</v>
       </c>
       <c r="C18" t="n">
-        <v>4297.98615099302</v>
+        <v>3678.26966679109</v>
       </c>
       <c r="D18" t="n">
-        <v>3529.97714695385</v>
+        <v>3215.0958240553</v>
       </c>
       <c r="E18" t="n">
         <v>8817.30179508606</v>
       </c>
       <c r="F18" t="n">
-        <v>9830.8681808923</v>
+        <v>9830.86820850748</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -851,19 +851,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6345.70643768285</v>
+        <v>6034.99531163783</v>
       </c>
       <c r="C19" t="n">
-        <v>4446.47157935691</v>
+        <v>3246.87169472374</v>
       </c>
       <c r="D19" t="n">
-        <v>3380.15115115819</v>
+        <v>2768.66716363529</v>
       </c>
       <c r="E19" t="n">
-        <v>8873.13798166695</v>
+        <v>8873.13800390566</v>
       </c>
       <c r="F19" t="n">
-        <v>10022.7577893209</v>
+        <v>10022.7578116892</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -877,19 +877,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6041.84787226527</v>
+        <v>5620.57050118084</v>
       </c>
       <c r="C20" t="n">
-        <v>3932.28367215465</v>
+        <v>2992.48978686654</v>
       </c>
       <c r="D20" t="n">
-        <v>2840.80223350428</v>
+        <v>2626.02871459586</v>
       </c>
       <c r="E20" t="n">
-        <v>8904.22417083458</v>
+        <v>8904.22417976795</v>
       </c>
       <c r="F20" t="n">
-        <v>10110.0869133044</v>
+        <v>10110.0869224673</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -903,19 +903,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5127.07465498264</v>
+        <v>4676.37459632943</v>
       </c>
       <c r="C21" t="n">
-        <v>2853.13101860044</v>
+        <v>2580.41695925687</v>
       </c>
       <c r="D21" t="n">
         <v>1731.64864603478</v>
       </c>
       <c r="E21" t="n">
-        <v>7994.7472999937</v>
+        <v>7994.74730084415</v>
       </c>
       <c r="F21" t="n">
-        <v>9254.34414222173</v>
+        <v>9254.34414339345</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -929,7 +929,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3902.70721382018</v>
+        <v>3464.3564386006</v>
       </c>
       <c r="C22" t="n">
         <v>1391.81626465701</v>
@@ -938,10 +938,10 @@
         <v>240.948002450767</v>
       </c>
       <c r="E22" t="n">
-        <v>6899.62185317273</v>
+        <v>6827.90387308445</v>
       </c>
       <c r="F22" t="n">
-        <v>8139.03446860222</v>
+        <v>8139.03447566782</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -955,7 +955,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3253.67116930032</v>
+        <v>3021.47052313181</v>
       </c>
       <c r="C23" t="n">
         <v>920.49457393859</v>
@@ -964,10 +964,10 @@
         <v>-259.191438361561</v>
       </c>
       <c r="E23" t="n">
-        <v>6283.76558829611</v>
+        <v>6283.76560190715</v>
       </c>
       <c r="F23" t="n">
-        <v>7644.47963125832</v>
+        <v>7644.47964535469</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -981,7 +981,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3184.83958799815</v>
+        <v>3014.21703027819</v>
       </c>
       <c r="C24" t="n">
         <v>934.779997356981</v>
@@ -990,10 +990,10 @@
         <v>-273.1972121057</v>
       </c>
       <c r="E24" t="n">
-        <v>6514.88672594901</v>
+        <v>6514.88672687416</v>
       </c>
       <c r="F24" t="n">
-        <v>7923.43986913932</v>
+        <v>7923.43987062408</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1007,7 +1007,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3134.86297653682</v>
+        <v>2938.38730954222</v>
       </c>
       <c r="C25" t="n">
         <v>730.525484603795</v>
@@ -1016,10 +1016,10 @@
         <v>-505.253442790242</v>
       </c>
       <c r="E25" t="n">
-        <v>6631.75292533362</v>
+        <v>6631.75292394406</v>
       </c>
       <c r="F25" t="n">
-        <v>8086.57291673777</v>
+        <v>8086.57291597791</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1033,19 +1033,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>3669.16987190117</v>
+        <v>3516.55061806159</v>
       </c>
       <c r="C26" t="n">
-        <v>1402.8198997504</v>
+        <v>1402.81993539598</v>
       </c>
       <c r="D26" t="n">
-        <v>-132.502830308994</v>
+        <v>-132.502795040064</v>
       </c>
       <c r="E26" t="n">
-        <v>7203.40725113557</v>
+        <v>7203.4072882042</v>
       </c>
       <c r="F26" t="n">
-        <v>8738.72998119496</v>
+        <v>8738.73001864024</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1059,19 +1059,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3786.88054947348</v>
+        <v>3778.55544655273</v>
       </c>
       <c r="C27" t="n">
-        <v>1232.76688409471</v>
+        <v>1232.76693994181</v>
       </c>
       <c r="D27" t="n">
-        <v>-379.015998142578</v>
+        <v>-379.015942421946</v>
       </c>
       <c r="E27" t="n">
-        <v>7322.22756675071</v>
+        <v>7322.22762307561</v>
       </c>
       <c r="F27" t="n">
-        <v>8934.01044898799</v>
+        <v>8934.01050543936</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1085,19 +1085,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>5003.83764596145</v>
+        <v>5046.58802294967</v>
       </c>
       <c r="C28" t="n">
-        <v>2695.51767962773</v>
+        <v>2631.31299194398</v>
       </c>
       <c r="D28" t="n">
-        <v>1010.74106743857</v>
+        <v>1010.74110590795</v>
       </c>
       <c r="E28" t="n">
-        <v>9060.75523863659</v>
+        <v>9060.75527662213</v>
       </c>
       <c r="F28" t="n">
-        <v>10745.5318508258</v>
+        <v>10745.53188871</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -1111,19 +1111,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5706.35468785072</v>
+        <v>5636.78318589079</v>
       </c>
       <c r="C29" t="n">
-        <v>3100.46430835411</v>
+        <v>3100.46435472657</v>
       </c>
       <c r="D29" t="n">
-        <v>1345.72774522912</v>
+        <v>1345.7277919122</v>
       </c>
       <c r="E29" t="n">
-        <v>9730.01685375425</v>
+        <v>9730.01689895315</v>
       </c>
       <c r="F29" t="n">
-        <v>11484.7534168792</v>
+        <v>11484.7534617675</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1137,19 +1137,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6447.44119493927</v>
+        <v>6272.96156622343</v>
       </c>
       <c r="C30" t="n">
-        <v>3714.01654578086</v>
+        <v>3433.37661298132</v>
       </c>
       <c r="D30" t="n">
-        <v>1892.00431243865</v>
+        <v>1892.00435435514</v>
       </c>
       <c r="E30" t="n">
-        <v>10597.7426236101</v>
+        <v>10597.7426631153</v>
       </c>
       <c r="F30" t="n">
-        <v>12419.7548569523</v>
+        <v>12419.7548959528</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1163,19 +1163,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6440.34828267909</v>
+        <v>6108.23627570165</v>
       </c>
       <c r="C31" t="n">
-        <v>3574.1232948566</v>
+        <v>2993.8633235668</v>
       </c>
       <c r="D31" t="n">
-        <v>1687.23253213776</v>
+        <v>1687.232563162</v>
       </c>
       <c r="E31" t="n">
-        <v>10702.9662914356</v>
+        <v>10702.9663191832</v>
       </c>
       <c r="F31" t="n">
-        <v>12589.8570541544</v>
+        <v>12589.8570812163</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1189,19 +1189,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6180.67558413516</v>
+        <v>5614.52354497053</v>
       </c>
       <c r="C32" t="n">
-        <v>3313.38275402864</v>
+        <v>2415.09787633054</v>
       </c>
       <c r="D32" t="n">
-        <v>1365.69599218239</v>
+        <v>1365.69599957674</v>
       </c>
       <c r="E32" t="n">
-        <v>10681.1149781122</v>
+        <v>10681.1149814176</v>
       </c>
       <c r="F32" t="n">
-        <v>12630.7264578522</v>
+        <v>12630.7264603018</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1215,19 +1215,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5326.06223496732</v>
+        <v>4630.2915797052</v>
       </c>
       <c r="C33" t="n">
-        <v>2193.8033436119</v>
+        <v>1902.28181730362</v>
       </c>
       <c r="D33" t="n">
-        <v>183.426987562887</v>
+        <v>183.426986301421</v>
       </c>
       <c r="E33" t="n">
-        <v>9789.18601730595</v>
+        <v>9789.18601118919</v>
       </c>
       <c r="F33" t="n">
-        <v>11799.562373355</v>
+        <v>11799.562366222</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1241,19 +1241,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4118.14153324019</v>
+        <v>3438.26823093286</v>
       </c>
       <c r="C34" t="n">
         <v>791.741106327493</v>
       </c>
       <c r="D34" t="n">
-        <v>-1263.13665299642</v>
+        <v>-1263.136648736</v>
       </c>
       <c r="E34" t="n">
-        <v>8624.44051135519</v>
+        <v>8624.4405100341</v>
       </c>
       <c r="F34" t="n">
-        <v>10693.7982048257</v>
+        <v>10693.7982023365</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -1267,19 +1267,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3466.92495147454</v>
+        <v>3031.67286731111</v>
       </c>
       <c r="C35" t="n">
-        <v>95.253078038671</v>
+        <v>95.2530938582063</v>
       </c>
       <c r="D35" t="n">
-        <v>-2031.45081146717</v>
+        <v>-2031.45079433492</v>
       </c>
       <c r="E35" t="n">
-        <v>8130.13163489562</v>
+        <v>8130.13164575559</v>
       </c>
       <c r="F35" t="n">
-        <v>10256.8355244015</v>
+        <v>10256.8355339487</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1293,19 +1293,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3304.26362635181</v>
+        <v>3040.42390766462</v>
       </c>
       <c r="C36" t="n">
-        <v>124.678914634817</v>
+        <v>124.678914955229</v>
       </c>
       <c r="D36" t="n">
-        <v>-2057.86492302647</v>
+        <v>-2057.86492125536</v>
       </c>
       <c r="E36" t="n">
-        <v>8370.52581751495</v>
+        <v>8370.52581235451</v>
       </c>
       <c r="F36" t="n">
-        <v>10553.0696551762</v>
+        <v>10553.0696485651</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1319,19 +1319,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3219.22698012371</v>
+        <v>2915.02386925981</v>
       </c>
       <c r="C37" t="n">
-        <v>26.8144555273702</v>
+        <v>26.8144501059151</v>
       </c>
       <c r="D37" t="n">
-        <v>-2210.17588252925</v>
+        <v>-2210.17588636793</v>
       </c>
       <c r="E37" t="n">
-        <v>8478.36513347516</v>
+        <v>8478.36512207382</v>
       </c>
       <c r="F37" t="n">
-        <v>10715.3554715318</v>
+        <v>10715.3554585477</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1345,19 +1345,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3801.8600840849</v>
+        <v>3681.9608802745</v>
       </c>
       <c r="C38" t="n">
-        <v>338.855848835346</v>
+        <v>338.855895016717</v>
       </c>
       <c r="D38" t="n">
-        <v>-1977.99740904531</v>
+        <v>-1977.99736036221</v>
       </c>
       <c r="E38" t="n">
-        <v>9092.13582024448</v>
+        <v>9092.13585697409</v>
       </c>
       <c r="F38" t="n">
-        <v>11408.9890781251</v>
+        <v>11408.989112353</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1371,19 +1371,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3814.61190676094</v>
+        <v>3891.96858193486</v>
       </c>
       <c r="C39" t="n">
-        <v>177.608346048122</v>
+        <v>177.608416978557</v>
       </c>
       <c r="D39" t="n">
-        <v>-2216.4153036094</v>
+        <v>-2216.41522928978</v>
       </c>
       <c r="E39" t="n">
-        <v>9222.44499780748</v>
+        <v>9222.44505593326</v>
       </c>
       <c r="F39" t="n">
-        <v>11616.468647465</v>
+        <v>11616.4687022016</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
